--- a/Template/Export/Sari_R4_9.xlsx
+++ b/Template/Export/Sari_R4_9.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Virus" sheetId="1" r:id="rId1"/>
     <sheet name="Virus_INF_GEO" sheetId="4" r:id="rId2"/>
     <sheet name="Virus_VSR_GEO" sheetId="5" r:id="rId3"/>
-    <sheet name="Gráficos" sheetId="2" r:id="rId4"/>
-    <sheet name="Leyendas" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Virus_SARS-CoV-2_GEO" sheetId="6" r:id="rId4"/>
+    <sheet name="Gráficos" sheetId="2" r:id="rId5"/>
+    <sheet name="Leyendas" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="EndDateRepo">Leyendas!$I$2</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="113">
   <si>
     <t>Numero de los casos</t>
   </si>
@@ -335,9 +336,6 @@
     <t>Procesar (1: Si)</t>
   </si>
   <si>
-    <t>Nombre Hoja nCov</t>
-  </si>
-  <si>
     <t>Nombre Hoja Virus (no cent)</t>
   </si>
   <si>
@@ -405,6 +403,15 @@
   </si>
   <si>
     <t>Establec. 01</t>
+  </si>
+  <si>
+    <t># Muestras analizadas SARS-Cov-2</t>
+  </si>
+  <si>
+    <t>Nombre Hoja SARS-CoV-2 GEO</t>
+  </si>
+  <si>
+    <t>Virus_SARS-CoV-2_GEO</t>
   </si>
 </sst>
 </file>
@@ -967,7 +974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1767,6 +1774,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1995,7 +2015,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2174,6 +2194,51 @@
     <xf numFmtId="0" fontId="0" fillId="46" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2199,6 +2264,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="45" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="45" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="36" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2228,16 +2299,28 @@
     <xf numFmtId="49" fontId="37" fillId="30" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="36" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="36" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="36" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="36" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="36" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,39 +2416,6 @@
     <xf numFmtId="0" fontId="42" fillId="40" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="225">
     <cellStyle name="20% - Énfasis1 2" xfId="1"/>
@@ -2699,7 +2749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AE$4:$AE$5</c:f>
+              <c:f>Virus!$AF$4:$AF$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2900,7 +2950,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AE$6:$AE$57</c:f>
+              <c:f>Virus!$AF$6:$AF$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -2920,19 +2970,19 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.3</c:v>
@@ -3075,7 +3125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AN$4:$AN$5</c:f>
+              <c:f>Virus!$AO$4:$AO$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3267,7 +3317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AN$6:$AN$57</c:f>
+              <c:f>Virus!$AO$6:$AO$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -3287,19 +3337,19 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.1</c:v>
@@ -3442,7 +3492,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AM$4:$AM$5</c:f>
+              <c:f>Virus!$AN$4:$AN$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3634,7 +3684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AM$6:$AM$57</c:f>
+              <c:f>Virus!$AN$6:$AN$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -3654,19 +3704,19 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4</c:v>
@@ -3809,7 +3859,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AO$4:$AO$5</c:f>
+              <c:f>Virus!$AP$4:$AP$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4001,7 +4051,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AO$6:$AO$57</c:f>
+              <c:f>Virus!$AP$6:$AP$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -4021,19 +4071,19 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.12</c:v>
@@ -4176,7 +4226,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AS$4</c:f>
+              <c:f>Virus!$AT$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4197,7 +4247,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AS$6:$AS$57</c:f>
+              <c:f>Virus!$AT$6:$AT$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -4214,25 +4264,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.52</c:v>
+                  <c:v>0.27083333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52</c:v>
+                  <c:v>0.27083333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -4984,9 +5034,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -5046,7 +5094,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33</c:v>
@@ -6613,7 +6661,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AE$4:$AE$5</c:f>
+              <c:f>Virus!$AF$4:$AF$5</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6635,7 +6683,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AE$6:$AE$57</c:f>
+              <c:f>Virus!$AF$6:$AF$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -6655,19 +6703,19 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.3</c:v>
@@ -6981,7 +7029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -7634,9 +7681,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -7726,7 +7771,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>33</c:v>
@@ -7738,10 +7783,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>120</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>53</c:v>
@@ -7759,7 +7804,7 @@
                   <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>33</c:v>
@@ -9060,7 +9105,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15</c:v>
@@ -9072,7 +9117,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>20</c:v>
@@ -9293,7 +9338,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5</c:v>
@@ -11204,7 +11249,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>Virus!$AD$4</c:f>
+              <c:f>Virus!$AE$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11226,7 +11271,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Virus!$AD$6:$AD$57</c:f>
+              <c:f>Virus!$AE$6:$AE$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="52"/>
@@ -11246,19 +11291,19 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.4</c:v>
@@ -11691,7 +11736,6 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12170,25 +12214,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13058,7 +13102,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -13701,7 +13744,8 @@
   <dimension ref="A1:BZ75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13728,24 +13772,25 @@
     <col min="22" max="22" width="13" customWidth="1"/>
     <col min="23" max="23" width="9.42578125" customWidth="1"/>
     <col min="24" max="24" width="14.85546875" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
     <col min="26" max="26" width="13.7109375" customWidth="1"/>
     <col min="27" max="27" width="15.28515625" customWidth="1"/>
     <col min="28" max="28" width="14.7109375" customWidth="1"/>
     <col min="29" max="29" width="13.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" customWidth="1"/>
-    <col min="31" max="31" width="15" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" customWidth="1"/>
-    <col min="33" max="37" width="13.7109375" customWidth="1"/>
-    <col min="38" max="38" width="17.42578125" customWidth="1"/>
-    <col min="39" max="39" width="19.85546875" customWidth="1"/>
-    <col min="40" max="40" width="15" customWidth="1"/>
-    <col min="41" max="41" width="16.42578125" customWidth="1"/>
-    <col min="42" max="43" width="15" customWidth="1"/>
-    <col min="44" max="44" width="16.42578125" customWidth="1"/>
-    <col min="45" max="45" width="18.85546875" style="33" customWidth="1"/>
-    <col min="46" max="47" width="15" customWidth="1"/>
-    <col min="66" max="66" width="11.42578125" style="33"/>
+    <col min="30" max="30" width="16" style="33" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="15" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" customWidth="1"/>
+    <col min="34" max="38" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="17.42578125" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" customWidth="1"/>
+    <col min="43" max="44" width="15" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" customWidth="1"/>
+    <col min="46" max="46" width="18.85546875" style="33" customWidth="1"/>
+    <col min="47" max="48" width="15" customWidth="1"/>
+    <col min="67" max="67" width="11.42578125" style="33"/>
     <col min="77" max="78" width="11.42578125" style="3"/>
     <col min="259" max="259" width="1.7109375" customWidth="1"/>
     <col min="260" max="260" width="9.140625" customWidth="1"/>
@@ -15135,277 +15180,283 @@
     <col min="16164" max="16171" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="str">
+    <row r="1" spans="1:78" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="str">
         <f>Leyendas!$T$2</f>
         <v>País: Costa Rica - Establecimiento: Establec. 01</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="84" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="84" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="85"/>
-      <c r="AN1" s="85"/>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="85"/>
-      <c r="AR1" s="85"/>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="86"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
+      <c r="AV1" s="105"/>
       <c r="BY1" s="65"/>
       <c r="BZ1" s="65"/>
     </row>
     <row r="2" spans="1:78" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="str">
+      <c r="A2" s="147" t="str">
         <f>"Vigilancia de Influenza y otros Virus Respiratorios - " &amp; Leyendas!$G$2 &amp; Leyendas!$T1</f>
         <v>Vigilancia de Influenza y otros Virus Respiratorios - IRAG y ETI, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="89"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="107"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="108"/>
       <c r="BY2" s="66"/>
       <c r="BZ2" s="66"/>
     </row>
-    <row r="3" spans="1:78" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+    <row r="3" spans="1:78" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120"/>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="90"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="91"/>
-      <c r="AH3" s="91"/>
-      <c r="AI3" s="91"/>
-      <c r="AJ3" s="91"/>
-      <c r="AK3" s="91"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="91"/>
-      <c r="AT3" s="91"/>
-      <c r="AU3" s="92"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="110"/>
+      <c r="AU3" s="110"/>
+      <c r="AV3" s="111"/>
       <c r="BY3" s="66"/>
       <c r="BZ3" s="66"/>
     </row>
     <row r="4" spans="1:78" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="124" t="str">
+      <c r="A4" s="149" t="str">
         <f>IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,Leyendas!$C$1))</f>
         <v>Establecimiento</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98" t="s">
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99" t="s">
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="100" t="s">
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="93" t="s">
+      <c r="Y4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="102" t="s">
+      <c r="AB4" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="104" t="s">
+      <c r="AC4" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="93" t="s">
+      <c r="AD4" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE4" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="AE4" s="106" t="s">
+      <c r="AF4" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="AF4" s="108" t="s">
+      <c r="AG4" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="110" t="s">
+      <c r="AH4" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="111"/>
-      <c r="AJ4" s="111"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="102" t="s">
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="AM4" s="102" t="s">
+      <c r="AN4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="102" t="s">
+      <c r="AO4" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="102" t="s">
+      <c r="AP4" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="AP4" s="102" t="s">
+      <c r="AQ4" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="AQ4" s="102" t="s">
+      <c r="AR4" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="AR4" s="102" t="s">
+      <c r="AS4" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="AS4" s="102" t="s">
+      <c r="AT4" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU4" s="129" t="s">
         <v>95</v>
       </c>
-      <c r="AT4" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="AU4" s="104" t="s">
+      <c r="AV4" s="127" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:78" s="3" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
+    <row r="5" spans="1:78" s="3" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="149"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="34" t="s">
         <v>26</v>
       </c>
@@ -15455,10 +15506,10 @@
         <v>23</v>
       </c>
       <c r="T5" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U5" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V5" s="38" t="s">
         <v>24</v>
@@ -15466,40 +15517,41 @@
       <c r="W5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="105"/>
-      <c r="AD5" s="94"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="109"/>
-      <c r="AG5" s="39" t="s">
+      <c r="X5" s="122"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="134"/>
+      <c r="AH5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AI5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AJ5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AJ5" s="39" t="s">
+      <c r="AK5" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="AK5" s="39" t="s">
+      <c r="AL5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="105"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="130"/>
+      <c r="AV5" s="128"/>
     </row>
     <row r="6" spans="1:78" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -15537,79 +15589,83 @@
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="9" t="str">
-        <f t="shared" ref="AD6:AD57" si="0">IF(Y6=0,"",Z6/Y6)</f>
+      <c r="AD6" s="8" t="str">
+        <f>IF(OR(ISNUMBER(T6), ISNUMBER(U6)), SUM(T6:U6), "")</f>
         <v/>
       </c>
       <c r="AE6" s="9" t="str">
-        <f t="shared" ref="AE6:AE57" si="1">IF(Y6=0,"",AA6/Y6)</f>
+        <f t="shared" ref="AE6:AE57" si="0">IF(Y6=0,"",Z6/Y6)</f>
         <v/>
       </c>
       <c r="AF6" s="9" t="str">
-        <f t="shared" ref="AF6:AF57" si="2">IF(Y6=0,"",AB6/Y6)</f>
+        <f t="shared" ref="AF6:AF57" si="1">IF(Y6=0,"",AA6/Y6)</f>
         <v/>
       </c>
       <c r="AG6" s="9" t="str">
-        <f t="shared" ref="AG6:AG37" si="3">IF($AB6=0,"",D6/$AB6)</f>
+        <f t="shared" ref="AG6:AG57" si="2">IF(Y6=0,"",AB6/Y6)</f>
         <v/>
       </c>
       <c r="AH6" s="9" t="str">
-        <f t="shared" ref="AH6:AH37" si="4">IF($AB6=0,"",E6/$AB6)</f>
+        <f t="shared" ref="AH6:AH37" si="3">IF($AB6=0,"",D6/$AB6)</f>
         <v/>
       </c>
       <c r="AI6" s="9" t="str">
-        <f t="shared" ref="AI6:AI37" si="5">IF($AB6=0,"",F6/$AB6)</f>
+        <f t="shared" ref="AI6:AI37" si="4">IF($AB6=0,"",E6/$AB6)</f>
         <v/>
       </c>
       <c r="AJ6" s="9" t="str">
-        <f t="shared" ref="AJ6:AJ37" si="6">IF($AB6=0,"",G6/$AB6)</f>
+        <f t="shared" ref="AJ6:AJ37" si="5">IF($AB6=0,"",F6/$AB6)</f>
         <v/>
       </c>
       <c r="AK6" s="9" t="str">
-        <f t="shared" ref="AK6:AK37" si="7">IF($AB6=0,"",H6/$AB6)</f>
-        <v/>
-      </c>
-      <c r="AL6" s="10" t="str">
-        <f t="shared" ref="AL6:AL58" si="8">IF($Y6=0,"",AC6/$Y6)</f>
-        <v/>
-      </c>
-      <c r="AM6" s="9" t="str">
-        <f t="shared" ref="AM6:AM37" si="9">IF($Y6=0,"",N6/$Y6)</f>
+        <f t="shared" ref="AK6:AK37" si="6">IF($AB6=0,"",G6/$AB6)</f>
+        <v/>
+      </c>
+      <c r="AL6" s="9" t="str">
+        <f t="shared" ref="AL6:AL37" si="7">IF($AB6=0,"",H6/$AB6)</f>
+        <v/>
+      </c>
+      <c r="AM6" s="10" t="str">
+        <f t="shared" ref="AM6:AM58" si="8">IF($Y6=0,"",AC6/$Y6)</f>
         <v/>
       </c>
       <c r="AN6" s="9" t="str">
-        <f t="shared" ref="AN6:AN37" si="10">IF($Y6=0,"",O6/$Y6)</f>
+        <f t="shared" ref="AN6:AN37" si="9">IF($Y6=0,"",N6/$Y6)</f>
         <v/>
       </c>
       <c r="AO6" s="9" t="str">
-        <f t="shared" ref="AO6:AO37" si="11">IF($Y6=0,"",P6/$Y6)</f>
+        <f t="shared" ref="AO6:AO37" si="10">IF($Y6=0,"",O6/$Y6)</f>
         <v/>
       </c>
       <c r="AP6" s="9" t="str">
-        <f t="shared" ref="AP6:AP37" si="12">IF($Y6=0,"",Q6/$Y6)</f>
+        <f t="shared" ref="AP6:AP37" si="11">IF($Y6=0,"",P6/$Y6)</f>
         <v/>
       </c>
       <c r="AQ6" s="9" t="str">
-        <f t="shared" ref="AQ6:AQ37" si="13">IF($Y6=0,"",R6/$Y6)</f>
+        <f t="shared" ref="AQ6:AQ37" si="12">IF($Y6=0,"",Q6/$Y6)</f>
         <v/>
       </c>
       <c r="AR6" s="9" t="str">
-        <f t="shared" ref="AR6:AR37" si="14">IF($Y6=0,"",S6/$Y6)</f>
+        <f t="shared" ref="AR6:AR37" si="13">IF($Y6=0,"",R6/$Y6)</f>
         <v/>
       </c>
       <c r="AS6" s="9" t="str">
-        <f t="shared" ref="AS6:AS37" si="15">IF($Y6=0,"",T6/$Y6)</f>
+        <f t="shared" ref="AS6:AS37" si="14">IF($Y6=0,"",S6/$Y6)</f>
         <v/>
       </c>
       <c r="AT6" s="9" t="str">
-        <f t="shared" ref="AT6:AT37" si="16">IF($Y6=0,"",V6/$Y6)</f>
+        <f>IF(OR($AD6=0, $AD6=""),"",T6/$AD6)</f>
         <v/>
       </c>
       <c r="AU6" s="9" t="str">
-        <f t="shared" ref="AU6:AU37" si="17">IF($Y6=0,"",W6/$Y6)</f>
-        <v/>
-      </c>
-      <c r="AV6" s="11"/>
+        <f t="shared" ref="AU6:AU37" si="15">IF($Y6=0,"",V6/$Y6)</f>
+        <v/>
+      </c>
+      <c r="AV6" s="9" t="str">
+        <f t="shared" ref="AV6:AV37" si="16">IF($Y6=0,"",W6/$Y6)</f>
+        <v/>
+      </c>
+      <c r="AW6" s="11"/>
       <c r="BY6" s="67">
         <f>$B6</f>
         <v>2020</v>
@@ -15655,82 +15711,86 @@
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="9" t="str">
+      <c r="AD7" s="8" t="str">
+        <f t="shared" ref="AD7:AD58" si="17">IF(OR(ISNUMBER(T7), ISNUMBER(U7)), SUM(T7:U7), "")</f>
+        <v/>
+      </c>
+      <c r="AE7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE7" s="9" t="str">
+      <c r="AF7" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF7" s="9" t="str">
+      <c r="AG7" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG7" s="9" t="str">
+      <c r="AH7" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH7" s="9" t="str">
+      <c r="AI7" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI7" s="9" t="str">
+      <c r="AJ7" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ7" s="9" t="str">
+      <c r="AK7" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK7" s="9" t="str">
+      <c r="AL7" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL7" s="10" t="str">
+      <c r="AM7" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM7" s="9" t="str">
+      <c r="AN7" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN7" s="9" t="str">
+      <c r="AO7" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO7" s="9" t="str">
+      <c r="AP7" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP7" s="9" t="str">
+      <c r="AQ7" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ7" s="9" t="str">
+      <c r="AR7" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR7" s="9" t="str">
+      <c r="AS7" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS7" s="9" t="str">
+      <c r="AT7" s="9" t="str">
+        <f t="shared" ref="AT7:AT57" si="18">IF(OR($AD7=0, $AD7=""),"",T7/$AD7)</f>
+        <v/>
+      </c>
+      <c r="AU7" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT7" s="9" t="str">
+      <c r="AV7" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU7" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
       <c r="BY7" s="67"/>
       <c r="BZ7" s="67">
-        <f t="shared" ref="BZ7:BZ57" si="18">$C7</f>
+        <f t="shared" ref="BZ7:BZ57" si="19">$C7</f>
         <v>2</v>
       </c>
     </row>
@@ -15770,82 +15830,86 @@
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="9" t="str">
+      <c r="AD8" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE8" s="9" t="str">
+      <c r="AF8" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF8" s="9" t="str">
+      <c r="AG8" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG8" s="9" t="str">
+      <c r="AH8" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH8" s="9" t="str">
+      <c r="AI8" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI8" s="9" t="str">
+      <c r="AJ8" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ8" s="9" t="str">
+      <c r="AK8" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK8" s="9" t="str">
+      <c r="AL8" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL8" s="10" t="str">
+      <c r="AM8" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM8" s="9" t="str">
+      <c r="AN8" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN8" s="9" t="str">
+      <c r="AO8" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO8" s="9" t="str">
+      <c r="AP8" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP8" s="9" t="str">
+      <c r="AQ8" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ8" s="9" t="str">
+      <c r="AR8" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR8" s="9" t="str">
+      <c r="AS8" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS8" s="9" t="str">
+      <c r="AT8" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU8" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT8" s="9" t="str">
+      <c r="AV8" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU8" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
       <c r="BY8" s="67"/>
       <c r="BZ8" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
@@ -15885,82 +15949,86 @@
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="9" t="str">
+      <c r="AD9" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE9" s="9" t="str">
+      <c r="AF9" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF9" s="9" t="str">
+      <c r="AG9" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG9" s="9" t="str">
+      <c r="AH9" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH9" s="9" t="str">
+      <c r="AI9" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI9" s="9" t="str">
+      <c r="AJ9" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ9" s="9" t="str">
+      <c r="AK9" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK9" s="9" t="str">
+      <c r="AL9" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL9" s="10" t="str">
+      <c r="AM9" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM9" s="9" t="str">
+      <c r="AN9" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN9" s="9" t="str">
+      <c r="AO9" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO9" s="9" t="str">
+      <c r="AP9" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP9" s="9" t="str">
+      <c r="AQ9" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ9" s="9" t="str">
+      <c r="AR9" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR9" s="9" t="str">
+      <c r="AS9" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS9" s="9" t="str">
+      <c r="AT9" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU9" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT9" s="9" t="str">
+      <c r="AV9" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU9" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
       <c r="BY9" s="67"/>
       <c r="BZ9" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -15993,7 +16061,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7">
         <v>6</v>
@@ -16025,7 +16093,9 @@
       <c r="T10" s="7">
         <v>30</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="7">
+        <v>50</v>
+      </c>
       <c r="V10" s="7">
         <v>6</v>
       </c>
@@ -16050,82 +16120,86 @@
       <c r="AC10" s="8">
         <v>5</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="8">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="AE10" s="9">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AF10" s="9">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AG10" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AH10" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AI10" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI10" s="9">
+      <c r="AJ10" s="9">
         <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
-      <c r="AJ10" s="9">
+      <c r="AK10" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AL10" s="9">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AM10" s="10">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="AM10" s="9">
+      <c r="AN10" s="9">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="AN10" s="9">
+      <c r="AO10" s="9">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AP10" s="9">
         <f t="shared" si="11"/>
         <v>0.16</v>
       </c>
-      <c r="AP10" s="9">
+      <c r="AQ10" s="9">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="AQ10" s="9">
+      <c r="AR10" s="9">
         <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
-      <c r="AR10" s="9">
+      <c r="AS10" s="9">
         <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
-      <c r="AS10" s="9">
+      <c r="AT10" s="9">
+        <f t="shared" si="18"/>
+        <v>0.375</v>
+      </c>
+      <c r="AU10" s="9">
         <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="AT10" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AV10" s="9">
         <f t="shared" si="16"/>
-        <v>0.12</v>
-      </c>
-      <c r="AU10" s="9">
-        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
       <c r="BY10" s="67"/>
       <c r="BZ10" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
@@ -16158,7 +16232,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K11" s="7">
         <v>6</v>
@@ -16170,7 +16244,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -16190,7 +16264,9 @@
       <c r="T11" s="7">
         <v>28</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7">
+        <v>60</v>
+      </c>
       <c r="V11" s="7">
         <v>6</v>
       </c>
@@ -16201,7 +16277,7 @@
         <v>2</v>
       </c>
       <c r="Y11" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z11" s="8">
         <v>20</v>
@@ -16215,82 +16291,86 @@
       <c r="AC11" s="8">
         <v>5</v>
       </c>
-      <c r="AD11" s="9">
+      <c r="AD11" s="8">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="AE11" s="9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE11" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF11" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AF11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AG11" s="9">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG11" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH11" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AI11" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI11" s="9">
+      <c r="AJ11" s="9">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="AJ11" s="9">
+      <c r="AK11" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AL11" s="9">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AM11" s="10">
         <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AN11" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO11" s="9">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AP11" s="9">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+      <c r="AQ11" s="9">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AR11" s="9">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AS11" s="9">
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="AM11" s="9">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AN11" s="9">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-      <c r="AO11" s="9">
-        <f t="shared" si="11"/>
-        <v>0.12</v>
-      </c>
-      <c r="AP11" s="9">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="AQ11" s="9">
-        <f t="shared" si="13"/>
-        <v>0.04</v>
-      </c>
-      <c r="AR11" s="9">
-        <f t="shared" si="14"/>
-        <v>0.06</v>
-      </c>
-      <c r="AS11" s="9">
+      <c r="AT11" s="9">
+        <f t="shared" si="18"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AU11" s="9">
         <f t="shared" si="15"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AT11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AV11" s="9">
         <f t="shared" si="16"/>
-        <v>0.12</v>
-      </c>
-      <c r="AU11" s="9">
-        <f t="shared" si="17"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AV11" s="11"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="AW11" s="11"/>
       <c r="BY11" s="67"/>
       <c r="BZ11" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
     </row>
@@ -16323,7 +16403,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K12" s="7">
         <v>3</v>
@@ -16355,7 +16435,9 @@
       <c r="T12" s="7">
         <v>26</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="7">
+        <v>70</v>
+      </c>
       <c r="V12" s="7">
         <v>3</v>
       </c>
@@ -16380,82 +16462,86 @@
       <c r="AC12" s="8">
         <v>5</v>
       </c>
-      <c r="AD12" s="9">
+      <c r="AD12" s="8">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="AE12" s="9">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AF12" s="9">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="AF12" s="9">
+      <c r="AG12" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="AG12" s="9">
+      <c r="AH12" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AI12" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI12" s="9">
+      <c r="AJ12" s="9">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="AJ12" s="9">
+      <c r="AK12" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AL12" s="9">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="AL12" s="10">
+      <c r="AM12" s="10">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="AM12" s="9">
+      <c r="AN12" s="9">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AO12" s="9">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="AO12" s="9">
+      <c r="AP12" s="9">
         <f t="shared" si="11"/>
         <v>0.22</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AQ12" s="9">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="AQ12" s="9">
+      <c r="AR12" s="9">
         <f t="shared" si="13"/>
         <v>0.02</v>
       </c>
-      <c r="AR12" s="9">
+      <c r="AS12" s="9">
         <f t="shared" si="14"/>
         <v>0.04</v>
       </c>
-      <c r="AS12" s="9">
+      <c r="AT12" s="9">
+        <f t="shared" si="18"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AU12" s="9">
         <f t="shared" si="15"/>
-        <v>0.52</v>
-      </c>
-      <c r="AT12" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AV12" s="9">
         <f t="shared" si="16"/>
-        <v>0.06</v>
-      </c>
-      <c r="AU12" s="9">
-        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
       <c r="BY12" s="67"/>
       <c r="BZ12" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
     </row>
@@ -16488,7 +16574,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K13" s="7">
         <v>3</v>
@@ -16503,7 +16589,7 @@
         <v>10</v>
       </c>
       <c r="O13" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P13" s="7">
         <v>15</v>
@@ -16520,7 +16606,9 @@
       <c r="T13" s="7">
         <v>24</v>
       </c>
-      <c r="U13" s="7"/>
+      <c r="U13" s="7">
+        <v>80</v>
+      </c>
       <c r="V13" s="7">
         <v>3</v>
       </c>
@@ -16531,10 +16619,10 @@
         <v>2</v>
       </c>
       <c r="Y13" s="8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="8">
         <v>5</v>
@@ -16545,82 +16633,86 @@
       <c r="AC13" s="8">
         <v>5</v>
       </c>
-      <c r="AD13" s="9">
+      <c r="AD13" s="8">
+        <f t="shared" si="17"/>
+        <v>104</v>
+      </c>
+      <c r="AE13" s="9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AF13" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="AF13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AG13" s="9">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AH13" s="9">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AI13" s="9">
         <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
-      <c r="AI13" s="9">
+      <c r="AJ13" s="9">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
-      <c r="AJ13" s="9">
+      <c r="AK13" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK13" s="9">
+      <c r="AL13" s="9">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AM13" s="10">
         <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="AM13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AN13" s="9">
         <f t="shared" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="AN13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AO13" s="9">
         <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="AO13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AP13" s="9">
         <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="AP13" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AQ13" s="9">
         <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="AQ13" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AR13" s="9">
         <f t="shared" si="13"/>
-        <v>0.06</v>
-      </c>
-      <c r="AR13" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AS13" s="9">
         <f t="shared" si="14"/>
-        <v>0.02</v>
-      </c>
-      <c r="AS13" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="AT13" s="9">
+        <f t="shared" si="18"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AU13" s="9">
         <f t="shared" si="15"/>
-        <v>0.48</v>
-      </c>
-      <c r="AT13" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="AV13" s="9">
         <f t="shared" si="16"/>
-        <v>0.06</v>
-      </c>
-      <c r="AU13" s="9">
-        <f t="shared" si="17"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AV13" s="11"/>
+        <v>0.35</v>
+      </c>
+      <c r="AW13" s="11"/>
       <c r="BY13" s="67"/>
       <c r="BZ13" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
     </row>
@@ -16653,7 +16745,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="7">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K14" s="7">
         <v>3</v>
@@ -16685,7 +16777,9 @@
       <c r="T14" s="7">
         <v>26</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="7">
+        <v>70</v>
+      </c>
       <c r="V14" s="7">
         <v>3</v>
       </c>
@@ -16710,82 +16804,86 @@
       <c r="AC14" s="8">
         <v>5</v>
       </c>
-      <c r="AD14" s="9">
+      <c r="AD14" s="8">
+        <f t="shared" si="17"/>
+        <v>96</v>
+      </c>
+      <c r="AE14" s="9">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AF14" s="9">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="AF14" s="9">
+      <c r="AG14" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="AG14" s="9">
+      <c r="AH14" s="9">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AI14" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI14" s="9">
+      <c r="AJ14" s="9">
         <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="AJ14" s="9">
+      <c r="AK14" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK14" s="9">
+      <c r="AL14" s="9">
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AM14" s="10">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="AM14" s="9">
+      <c r="AN14" s="9">
         <f t="shared" si="9"/>
         <v>0.3</v>
       </c>
-      <c r="AN14" s="9">
+      <c r="AO14" s="9">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="AO14" s="9">
+      <c r="AP14" s="9">
         <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AQ14" s="9">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="AQ14" s="9">
+      <c r="AR14" s="9">
         <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
-      <c r="AR14" s="9">
+      <c r="AS14" s="9">
         <f t="shared" si="14"/>
         <v>0.04</v>
       </c>
-      <c r="AS14" s="9">
+      <c r="AT14" s="9">
+        <f t="shared" si="18"/>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AU14" s="9">
         <f t="shared" si="15"/>
-        <v>0.52</v>
-      </c>
-      <c r="AT14" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="AV14" s="9">
         <f t="shared" si="16"/>
-        <v>0.06</v>
-      </c>
-      <c r="AU14" s="9">
-        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
       <c r="BY14" s="67"/>
       <c r="BZ14" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
     </row>
@@ -16818,7 +16916,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="K15" s="7">
         <v>6</v>
@@ -16830,7 +16928,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O15" s="7">
         <v>5</v>
@@ -16850,7 +16948,9 @@
       <c r="T15" s="7">
         <v>28</v>
       </c>
-      <c r="U15" s="7"/>
+      <c r="U15" s="7">
+        <v>60</v>
+      </c>
       <c r="V15" s="7">
         <v>6</v>
       </c>
@@ -16861,7 +16961,7 @@
         <v>2</v>
       </c>
       <c r="Y15" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z15" s="8">
         <v>20</v>
@@ -16875,82 +16975,86 @@
       <c r="AC15" s="8">
         <v>5</v>
       </c>
-      <c r="AD15" s="9">
+      <c r="AD15" s="8">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="AE15" s="9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE15" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF15" s="9">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="AF15" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AG15" s="9">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG15" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH15" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AI15" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI15" s="9">
+      <c r="AJ15" s="9">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="AJ15" s="9">
+      <c r="AK15" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK15" s="9">
+      <c r="AL15" s="9">
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AM15" s="10">
         <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AN15" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="AO15" s="9">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AP15" s="9">
+        <f t="shared" si="11"/>
         <v>0.1</v>
       </c>
-      <c r="AM15" s="9">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="AN15" s="9">
-        <f t="shared" si="10"/>
+      <c r="AQ15" s="9">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AR15" s="9">
+        <f t="shared" si="13"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AS15" s="9">
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="AO15" s="9">
-        <f t="shared" si="11"/>
-        <v>0.06</v>
-      </c>
-      <c r="AP15" s="9">
-        <f t="shared" si="12"/>
-        <v>0.1</v>
-      </c>
-      <c r="AQ15" s="9">
-        <f t="shared" si="13"/>
-        <v>0.02</v>
-      </c>
-      <c r="AR15" s="9">
-        <f t="shared" si="14"/>
-        <v>0.06</v>
-      </c>
-      <c r="AS15" s="9">
+      <c r="AT15" s="9">
+        <f t="shared" si="18"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AU15" s="9">
         <f t="shared" si="15"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AT15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AV15" s="9">
         <f t="shared" si="16"/>
-        <v>0.12</v>
-      </c>
-      <c r="AU15" s="9">
-        <f t="shared" si="17"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AV15" s="11"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="AW15" s="11"/>
       <c r="BY15" s="67"/>
       <c r="BZ15" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
     </row>
@@ -16983,7 +17087,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="K16" s="7">
         <v>6</v>
@@ -17015,7 +17119,9 @@
       <c r="T16" s="7">
         <v>30</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="7">
+        <v>50</v>
+      </c>
       <c r="V16" s="7">
         <v>6</v>
       </c>
@@ -17040,82 +17146,86 @@
       <c r="AC16" s="8">
         <v>5</v>
       </c>
-      <c r="AD16" s="9">
+      <c r="AD16" s="8">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="AE16" s="9">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AF16" s="9">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AG16" s="9">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="AG16" s="9">
+      <c r="AH16" s="9">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AI16" s="9">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="AI16" s="9">
+      <c r="AJ16" s="9">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="AJ16" s="9">
+      <c r="AK16" s="9">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="AK16" s="9">
+      <c r="AL16" s="9">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AM16" s="10">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="AM16" s="9">
+      <c r="AN16" s="9">
         <f t="shared" si="9"/>
         <v>0.4</v>
       </c>
-      <c r="AN16" s="9">
+      <c r="AO16" s="9">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="AO16" s="9">
+      <c r="AP16" s="9">
         <f t="shared" si="11"/>
         <v>0.12</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AQ16" s="9">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="AQ16" s="9">
+      <c r="AR16" s="9">
         <f t="shared" si="13"/>
         <v>0.06</v>
       </c>
-      <c r="AR16" s="9">
+      <c r="AS16" s="9">
         <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
-      <c r="AS16" s="9">
+      <c r="AT16" s="9">
+        <f t="shared" si="18"/>
+        <v>0.375</v>
+      </c>
+      <c r="AU16" s="9">
         <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="AT16" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AV16" s="9">
         <f t="shared" si="16"/>
-        <v>0.12</v>
-      </c>
-      <c r="AU16" s="9">
-        <f t="shared" si="17"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
       <c r="BY16" s="67"/>
       <c r="BZ16" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
     </row>
@@ -17155,82 +17265,86 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="9" t="str">
+      <c r="AD17" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE17" s="9" t="str">
+      <c r="AF17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF17" s="9" t="str">
+      <c r="AG17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG17" s="9" t="str">
+      <c r="AH17" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH17" s="9" t="str">
+      <c r="AI17" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI17" s="9" t="str">
+      <c r="AJ17" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ17" s="9" t="str">
+      <c r="AK17" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK17" s="9" t="str">
+      <c r="AL17" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL17" s="10" t="str">
+      <c r="AM17" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM17" s="9" t="str">
+      <c r="AN17" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN17" s="9" t="str">
+      <c r="AO17" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO17" s="9" t="str">
+      <c r="AP17" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP17" s="9" t="str">
+      <c r="AQ17" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ17" s="9" t="str">
+      <c r="AR17" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR17" s="9" t="str">
+      <c r="AS17" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS17" s="9" t="str">
+      <c r="AT17" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU17" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT17" s="9" t="str">
+      <c r="AV17" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU17" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
       <c r="BY17" s="67"/>
       <c r="BZ17" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
     </row>
@@ -17270,82 +17384,86 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="9" t="str">
+      <c r="AD18" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE18" s="9" t="str">
+      <c r="AF18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF18" s="9" t="str">
+      <c r="AG18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG18" s="9" t="str">
+      <c r="AH18" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH18" s="9" t="str">
+      <c r="AI18" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI18" s="9" t="str">
+      <c r="AJ18" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ18" s="9" t="str">
+      <c r="AK18" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK18" s="9" t="str">
+      <c r="AL18" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL18" s="10" t="str">
+      <c r="AM18" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM18" s="9" t="str">
+      <c r="AN18" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN18" s="9" t="str">
+      <c r="AO18" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO18" s="9" t="str">
+      <c r="AP18" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP18" s="9" t="str">
+      <c r="AQ18" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ18" s="9" t="str">
+      <c r="AR18" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR18" s="9" t="str">
+      <c r="AS18" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS18" s="9" t="str">
+      <c r="AT18" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU18" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT18" s="9" t="str">
+      <c r="AV18" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU18" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
       <c r="BY18" s="67"/>
       <c r="BZ18" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
     </row>
@@ -17385,82 +17503,86 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
-      <c r="AD19" s="9" t="str">
+      <c r="AD19" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE19" s="9" t="str">
+      <c r="AF19" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF19" s="9" t="str">
+      <c r="AG19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG19" s="9" t="str">
+      <c r="AH19" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH19" s="9" t="str">
+      <c r="AI19" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI19" s="9" t="str">
+      <c r="AJ19" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ19" s="9" t="str">
+      <c r="AK19" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK19" s="9" t="str">
+      <c r="AL19" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL19" s="10" t="str">
+      <c r="AM19" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM19" s="9" t="str">
+      <c r="AN19" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN19" s="9" t="str">
+      <c r="AO19" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO19" s="9" t="str">
+      <c r="AP19" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP19" s="9" t="str">
+      <c r="AQ19" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ19" s="9" t="str">
+      <c r="AR19" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR19" s="9" t="str">
+      <c r="AS19" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS19" s="9" t="str">
+      <c r="AT19" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU19" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT19" s="9" t="str">
+      <c r="AV19" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU19" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
       <c r="BY19" s="67"/>
       <c r="BZ19" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
     </row>
@@ -17500,82 +17622,86 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
-      <c r="AD20" s="9" t="str">
+      <c r="AD20" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE20" s="9" t="str">
+      <c r="AF20" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF20" s="9" t="str">
+      <c r="AG20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG20" s="9" t="str">
+      <c r="AH20" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH20" s="9" t="str">
+      <c r="AI20" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI20" s="9" t="str">
+      <c r="AJ20" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ20" s="9" t="str">
+      <c r="AK20" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK20" s="9" t="str">
+      <c r="AL20" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL20" s="10" t="str">
+      <c r="AM20" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM20" s="9" t="str">
+      <c r="AN20" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN20" s="9" t="str">
+      <c r="AO20" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO20" s="9" t="str">
+      <c r="AP20" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP20" s="9" t="str">
+      <c r="AQ20" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ20" s="9" t="str">
+      <c r="AR20" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR20" s="9" t="str">
+      <c r="AS20" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS20" s="9" t="str">
+      <c r="AT20" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU20" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT20" s="9" t="str">
+      <c r="AV20" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU20" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
       <c r="BY20" s="67"/>
       <c r="BZ20" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
     </row>
@@ -17615,82 +17741,86 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
-      <c r="AD21" s="9" t="str">
+      <c r="AD21" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE21" s="9" t="str">
+      <c r="AF21" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF21" s="9" t="str">
+      <c r="AG21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG21" s="9" t="str">
+      <c r="AH21" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH21" s="9" t="str">
+      <c r="AI21" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI21" s="9" t="str">
+      <c r="AJ21" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ21" s="9" t="str">
+      <c r="AK21" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK21" s="9" t="str">
+      <c r="AL21" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL21" s="10" t="str">
+      <c r="AM21" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM21" s="9" t="str">
+      <c r="AN21" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN21" s="9" t="str">
+      <c r="AO21" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO21" s="9" t="str">
+      <c r="AP21" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP21" s="9" t="str">
+      <c r="AQ21" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ21" s="9" t="str">
+      <c r="AR21" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR21" s="9" t="str">
+      <c r="AS21" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS21" s="9" t="str">
+      <c r="AT21" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU21" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT21" s="9" t="str">
+      <c r="AV21" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU21" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
       <c r="BY21" s="68"/>
       <c r="BZ21" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
     </row>
@@ -17730,82 +17860,86 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
-      <c r="AD22" s="9" t="str">
+      <c r="AD22" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE22" s="9" t="str">
+      <c r="AF22" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF22" s="9" t="str">
+      <c r="AG22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG22" s="9" t="str">
+      <c r="AH22" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH22" s="9" t="str">
+      <c r="AI22" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI22" s="9" t="str">
+      <c r="AJ22" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ22" s="9" t="str">
+      <c r="AK22" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK22" s="9" t="str">
+      <c r="AL22" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL22" s="10" t="str">
+      <c r="AM22" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM22" s="9" t="str">
+      <c r="AN22" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN22" s="9" t="str">
+      <c r="AO22" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO22" s="9" t="str">
+      <c r="AP22" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP22" s="9" t="str">
+      <c r="AQ22" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ22" s="9" t="str">
+      <c r="AR22" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR22" s="9" t="str">
+      <c r="AS22" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS22" s="9" t="str">
+      <c r="AT22" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU22" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT22" s="9" t="str">
+      <c r="AV22" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU22" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
       <c r="BY22" s="67"/>
       <c r="BZ22" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
     </row>
@@ -17845,82 +17979,86 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-      <c r="AD23" s="9" t="str">
+      <c r="AD23" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE23" s="9" t="str">
+      <c r="AF23" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF23" s="9" t="str">
+      <c r="AG23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG23" s="9" t="str">
+      <c r="AH23" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH23" s="9" t="str">
+      <c r="AI23" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI23" s="9" t="str">
+      <c r="AJ23" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ23" s="9" t="str">
+      <c r="AK23" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK23" s="9" t="str">
+      <c r="AL23" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL23" s="10" t="str">
+      <c r="AM23" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM23" s="9" t="str">
+      <c r="AN23" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN23" s="9" t="str">
+      <c r="AO23" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO23" s="9" t="str">
+      <c r="AP23" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP23" s="9" t="str">
+      <c r="AQ23" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ23" s="9" t="str">
+      <c r="AR23" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR23" s="9" t="str">
+      <c r="AS23" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS23" s="9" t="str">
+      <c r="AT23" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU23" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT23" s="9" t="str">
+      <c r="AV23" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU23" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
       <c r="BY23" s="67"/>
       <c r="BZ23" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
     </row>
@@ -17960,82 +18098,86 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
-      <c r="AD24" s="9" t="str">
+      <c r="AD24" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE24" s="9" t="str">
+      <c r="AF24" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF24" s="9" t="str">
+      <c r="AG24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG24" s="9" t="str">
+      <c r="AH24" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH24" s="9" t="str">
+      <c r="AI24" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI24" s="9" t="str">
+      <c r="AJ24" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ24" s="9" t="str">
+      <c r="AK24" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK24" s="9" t="str">
+      <c r="AL24" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL24" s="10" t="str">
+      <c r="AM24" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM24" s="9" t="str">
+      <c r="AN24" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN24" s="9" t="str">
+      <c r="AO24" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO24" s="9" t="str">
+      <c r="AP24" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP24" s="9" t="str">
+      <c r="AQ24" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ24" s="9" t="str">
+      <c r="AR24" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR24" s="9" t="str">
+      <c r="AS24" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS24" s="9" t="str">
+      <c r="AT24" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU24" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT24" s="9" t="str">
+      <c r="AV24" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU24" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
       <c r="BY24" s="67"/>
       <c r="BZ24" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
     </row>
@@ -18075,82 +18217,86 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
-      <c r="AD25" s="9" t="str">
+      <c r="AD25" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE25" s="9" t="str">
+      <c r="AF25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF25" s="9" t="str">
+      <c r="AG25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG25" s="9" t="str">
+      <c r="AH25" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH25" s="9" t="str">
+      <c r="AI25" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI25" s="9" t="str">
+      <c r="AJ25" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ25" s="9" t="str">
+      <c r="AK25" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK25" s="9" t="str">
+      <c r="AL25" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL25" s="10" t="str">
+      <c r="AM25" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM25" s="9" t="str">
+      <c r="AN25" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN25" s="9" t="str">
+      <c r="AO25" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO25" s="9" t="str">
+      <c r="AP25" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP25" s="9" t="str">
+      <c r="AQ25" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ25" s="9" t="str">
+      <c r="AR25" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR25" s="9" t="str">
+      <c r="AS25" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS25" s="9" t="str">
+      <c r="AT25" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU25" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT25" s="9" t="str">
+      <c r="AV25" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU25" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
       <c r="BY25" s="67"/>
       <c r="BZ25" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
@@ -18190,82 +18336,86 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
-      <c r="AD26" s="9" t="str">
+      <c r="AD26" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE26" s="9" t="str">
+      <c r="AF26" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF26" s="9" t="str">
+      <c r="AG26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG26" s="9" t="str">
+      <c r="AH26" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH26" s="9" t="str">
+      <c r="AI26" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI26" s="9" t="str">
+      <c r="AJ26" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ26" s="9" t="str">
+      <c r="AK26" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK26" s="9" t="str">
+      <c r="AL26" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL26" s="10" t="str">
+      <c r="AM26" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM26" s="9" t="str">
+      <c r="AN26" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN26" s="9" t="str">
+      <c r="AO26" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO26" s="9" t="str">
+      <c r="AP26" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP26" s="9" t="str">
+      <c r="AQ26" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ26" s="9" t="str">
+      <c r="AR26" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR26" s="9" t="str">
+      <c r="AS26" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS26" s="9" t="str">
+      <c r="AT26" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU26" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT26" s="9" t="str">
+      <c r="AV26" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU26" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
       <c r="BY26" s="67"/>
       <c r="BZ26" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
     </row>
@@ -18305,82 +18455,86 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="9" t="str">
+      <c r="AD27" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE27" s="9" t="str">
+      <c r="AF27" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF27" s="9" t="str">
+      <c r="AG27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG27" s="9" t="str">
+      <c r="AH27" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH27" s="9" t="str">
+      <c r="AI27" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI27" s="9" t="str">
+      <c r="AJ27" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ27" s="9" t="str">
+      <c r="AK27" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK27" s="9" t="str">
+      <c r="AL27" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL27" s="10" t="str">
+      <c r="AM27" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM27" s="9" t="str">
+      <c r="AN27" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN27" s="9" t="str">
+      <c r="AO27" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO27" s="9" t="str">
+      <c r="AP27" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP27" s="9" t="str">
+      <c r="AQ27" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ27" s="9" t="str">
+      <c r="AR27" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR27" s="9" t="str">
+      <c r="AS27" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS27" s="9" t="str">
+      <c r="AT27" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU27" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT27" s="9" t="str">
+      <c r="AV27" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU27" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
       <c r="BY27" s="67"/>
       <c r="BZ27" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
     </row>
@@ -18420,82 +18574,86 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
-      <c r="AD28" s="9" t="str">
+      <c r="AD28" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE28" s="9" t="str">
+      <c r="AF28" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF28" s="9" t="str">
+      <c r="AG28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG28" s="9" t="str">
+      <c r="AH28" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH28" s="9" t="str">
+      <c r="AI28" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI28" s="9" t="str">
+      <c r="AJ28" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ28" s="9" t="str">
+      <c r="AK28" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK28" s="9" t="str">
+      <c r="AL28" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL28" s="10" t="str">
+      <c r="AM28" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM28" s="9" t="str">
+      <c r="AN28" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN28" s="9" t="str">
+      <c r="AO28" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO28" s="9" t="str">
+      <c r="AP28" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP28" s="9" t="str">
+      <c r="AQ28" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ28" s="9" t="str">
+      <c r="AR28" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR28" s="9" t="str">
+      <c r="AS28" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS28" s="9" t="str">
+      <c r="AT28" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU28" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT28" s="9" t="str">
+      <c r="AV28" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU28" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
       <c r="BY28" s="67"/>
       <c r="BZ28" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
     </row>
@@ -18535,82 +18693,86 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
-      <c r="AD29" s="9" t="str">
+      <c r="AD29" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE29" s="9" t="str">
+      <c r="AF29" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF29" s="9" t="str">
+      <c r="AG29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG29" s="9" t="str">
+      <c r="AH29" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH29" s="9" t="str">
+      <c r="AI29" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI29" s="9" t="str">
+      <c r="AJ29" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ29" s="9" t="str">
+      <c r="AK29" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK29" s="9" t="str">
+      <c r="AL29" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL29" s="10" t="str">
+      <c r="AM29" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM29" s="9" t="str">
+      <c r="AN29" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN29" s="9" t="str">
+      <c r="AO29" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO29" s="9" t="str">
+      <c r="AP29" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP29" s="9" t="str">
+      <c r="AQ29" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ29" s="9" t="str">
+      <c r="AR29" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR29" s="9" t="str">
+      <c r="AS29" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS29" s="9" t="str">
+      <c r="AT29" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU29" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT29" s="9" t="str">
+      <c r="AV29" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU29" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
       <c r="BY29" s="67"/>
       <c r="BZ29" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
     </row>
@@ -18650,82 +18812,86 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
-      <c r="AD30" s="9" t="str">
+      <c r="AD30" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE30" s="9" t="str">
+      <c r="AF30" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF30" s="9" t="str">
+      <c r="AG30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG30" s="9" t="str">
+      <c r="AH30" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH30" s="9" t="str">
+      <c r="AI30" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI30" s="9" t="str">
+      <c r="AJ30" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ30" s="9" t="str">
+      <c r="AK30" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK30" s="9" t="str">
+      <c r="AL30" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL30" s="10" t="str">
+      <c r="AM30" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM30" s="9" t="str">
+      <c r="AN30" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN30" s="9" t="str">
+      <c r="AO30" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO30" s="9" t="str">
+      <c r="AP30" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP30" s="9" t="str">
+      <c r="AQ30" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ30" s="9" t="str">
+      <c r="AR30" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR30" s="9" t="str">
+      <c r="AS30" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS30" s="9" t="str">
+      <c r="AT30" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU30" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT30" s="9" t="str">
+      <c r="AV30" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU30" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
       <c r="BY30" s="67"/>
       <c r="BZ30" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
     </row>
@@ -18765,82 +18931,86 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
-      <c r="AD31" s="9" t="str">
+      <c r="AD31" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE31" s="9" t="str">
+      <c r="AF31" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF31" s="9" t="str">
+      <c r="AG31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG31" s="9" t="str">
+      <c r="AH31" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH31" s="9" t="str">
+      <c r="AI31" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI31" s="9" t="str">
+      <c r="AJ31" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ31" s="9" t="str">
+      <c r="AK31" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK31" s="9" t="str">
+      <c r="AL31" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL31" s="10" t="str">
+      <c r="AM31" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM31" s="9" t="str">
+      <c r="AN31" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN31" s="9" t="str">
+      <c r="AO31" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO31" s="9" t="str">
+      <c r="AP31" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP31" s="9" t="str">
+      <c r="AQ31" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ31" s="9" t="str">
+      <c r="AR31" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR31" s="9" t="str">
+      <c r="AS31" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS31" s="9" t="str">
+      <c r="AT31" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU31" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT31" s="9" t="str">
+      <c r="AV31" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU31" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
       <c r="BY31" s="67"/>
       <c r="BZ31" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
     </row>
@@ -18880,82 +19050,86 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
-      <c r="AD32" s="9" t="str">
+      <c r="AD32" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE32" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE32" s="9" t="str">
+      <c r="AF32" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF32" s="9" t="str">
+      <c r="AG32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG32" s="9" t="str">
+      <c r="AH32" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH32" s="9" t="str">
+      <c r="AI32" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI32" s="9" t="str">
+      <c r="AJ32" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ32" s="9" t="str">
+      <c r="AK32" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK32" s="9" t="str">
+      <c r="AL32" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL32" s="10" t="str">
+      <c r="AM32" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM32" s="9" t="str">
+      <c r="AN32" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN32" s="9" t="str">
+      <c r="AO32" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO32" s="9" t="str">
+      <c r="AP32" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP32" s="9" t="str">
+      <c r="AQ32" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ32" s="9" t="str">
+      <c r="AR32" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR32" s="9" t="str">
+      <c r="AS32" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS32" s="9" t="str">
+      <c r="AT32" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU32" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT32" s="9" t="str">
+      <c r="AV32" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU32" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
       <c r="BY32" s="67"/>
       <c r="BZ32" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
     </row>
@@ -18995,82 +19169,86 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
-      <c r="AD33" s="9" t="str">
+      <c r="AD33" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE33" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE33" s="9" t="str">
+      <c r="AF33" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF33" s="9" t="str">
+      <c r="AG33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG33" s="9" t="str">
+      <c r="AH33" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH33" s="9" t="str">
+      <c r="AI33" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI33" s="9" t="str">
+      <c r="AJ33" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ33" s="9" t="str">
+      <c r="AK33" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK33" s="9" t="str">
+      <c r="AL33" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL33" s="10" t="str">
+      <c r="AM33" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM33" s="9" t="str">
+      <c r="AN33" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN33" s="9" t="str">
+      <c r="AO33" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO33" s="9" t="str">
+      <c r="AP33" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP33" s="9" t="str">
+      <c r="AQ33" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ33" s="9" t="str">
+      <c r="AR33" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR33" s="9" t="str">
+      <c r="AS33" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS33" s="9" t="str">
+      <c r="AT33" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU33" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT33" s="9" t="str">
+      <c r="AV33" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU33" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
       <c r="BY33" s="67"/>
       <c r="BZ33" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
     </row>
@@ -19110,82 +19288,86 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="9" t="str">
+      <c r="AD34" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE34" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE34" s="9" t="str">
+      <c r="AF34" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF34" s="9" t="str">
+      <c r="AG34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG34" s="9" t="str">
+      <c r="AH34" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH34" s="9" t="str">
+      <c r="AI34" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI34" s="9" t="str">
+      <c r="AJ34" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ34" s="9" t="str">
+      <c r="AK34" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK34" s="9" t="str">
+      <c r="AL34" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL34" s="10" t="str">
+      <c r="AM34" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM34" s="9" t="str">
+      <c r="AN34" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN34" s="9" t="str">
+      <c r="AO34" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO34" s="9" t="str">
+      <c r="AP34" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP34" s="9" t="str">
+      <c r="AQ34" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ34" s="9" t="str">
+      <c r="AR34" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR34" s="9" t="str">
+      <c r="AS34" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS34" s="9" t="str">
+      <c r="AT34" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU34" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT34" s="9" t="str">
+      <c r="AV34" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU34" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
       <c r="BY34" s="67"/>
       <c r="BZ34" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
     </row>
@@ -19225,82 +19407,86 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
-      <c r="AD35" s="9" t="str">
+      <c r="AD35" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE35" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE35" s="9" t="str">
+      <c r="AF35" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF35" s="9" t="str">
+      <c r="AG35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG35" s="9" t="str">
+      <c r="AH35" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH35" s="9" t="str">
+      <c r="AI35" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI35" s="9" t="str">
+      <c r="AJ35" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ35" s="9" t="str">
+      <c r="AK35" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK35" s="9" t="str">
+      <c r="AL35" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL35" s="10" t="str">
+      <c r="AM35" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM35" s="9" t="str">
+      <c r="AN35" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN35" s="9" t="str">
+      <c r="AO35" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO35" s="9" t="str">
+      <c r="AP35" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP35" s="9" t="str">
+      <c r="AQ35" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ35" s="9" t="str">
+      <c r="AR35" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR35" s="9" t="str">
+      <c r="AS35" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS35" s="9" t="str">
+      <c r="AT35" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU35" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT35" s="9" t="str">
+      <c r="AV35" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU35" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
       <c r="BY35" s="67"/>
       <c r="BZ35" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
     </row>
@@ -19340,82 +19526,86 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
-      <c r="AD36" s="9" t="str">
+      <c r="AD36" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE36" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE36" s="9" t="str">
+      <c r="AF36" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF36" s="9" t="str">
+      <c r="AG36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG36" s="9" t="str">
+      <c r="AH36" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH36" s="9" t="str">
+      <c r="AI36" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI36" s="9" t="str">
+      <c r="AJ36" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ36" s="9" t="str">
+      <c r="AK36" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK36" s="9" t="str">
+      <c r="AL36" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL36" s="10" t="str">
+      <c r="AM36" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM36" s="9" t="str">
+      <c r="AN36" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN36" s="9" t="str">
+      <c r="AO36" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO36" s="9" t="str">
+      <c r="AP36" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP36" s="9" t="str">
+      <c r="AQ36" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ36" s="9" t="str">
+      <c r="AR36" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR36" s="9" t="str">
+      <c r="AS36" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS36" s="9" t="str">
+      <c r="AT36" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU36" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT36" s="9" t="str">
+      <c r="AV36" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU36" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
       <c r="BY36" s="67"/>
       <c r="BZ36" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
     </row>
@@ -19455,82 +19645,86 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-      <c r="AD37" s="9" t="str">
+      <c r="AD37" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE37" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE37" s="9" t="str">
+      <c r="AF37" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF37" s="9" t="str">
+      <c r="AG37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG37" s="9" t="str">
+      <c r="AH37" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AH37" s="9" t="str">
+      <c r="AI37" s="9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI37" s="9" t="str">
+      <c r="AJ37" s="9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AJ37" s="9" t="str">
+      <c r="AK37" s="9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AK37" s="9" t="str">
+      <c r="AL37" s="9" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AL37" s="10" t="str">
+      <c r="AM37" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM37" s="9" t="str">
+      <c r="AN37" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AN37" s="9" t="str">
+      <c r="AO37" s="9" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="AO37" s="9" t="str">
+      <c r="AP37" s="9" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AP37" s="9" t="str">
+      <c r="AQ37" s="9" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AQ37" s="9" t="str">
+      <c r="AR37" s="9" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AR37" s="9" t="str">
+      <c r="AS37" s="9" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="AS37" s="9" t="str">
+      <c r="AT37" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU37" s="9" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AT37" s="9" t="str">
+      <c r="AV37" s="9" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="AU37" s="9" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
       <c r="BY37" s="67"/>
       <c r="BZ37" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
     </row>
@@ -19570,82 +19764,86 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-      <c r="AD38" s="9" t="str">
+      <c r="AD38" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE38" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE38" s="9" t="str">
+      <c r="AF38" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF38" s="9" t="str">
+      <c r="AG38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AG38" s="9" t="str">
-        <f t="shared" ref="AG38:AG58" si="19">IF($AB38=0,"",D38/$AB38)</f>
-        <v/>
-      </c>
       <c r="AH38" s="9" t="str">
-        <f t="shared" ref="AH38:AH58" si="20">IF($AB38=0,"",E38/$AB38)</f>
+        <f t="shared" ref="AH38:AH58" si="20">IF($AB38=0,"",D38/$AB38)</f>
         <v/>
       </c>
       <c r="AI38" s="9" t="str">
-        <f t="shared" ref="AI38:AI58" si="21">IF($AB38=0,"",F38/$AB38)</f>
+        <f t="shared" ref="AI38:AI58" si="21">IF($AB38=0,"",E38/$AB38)</f>
         <v/>
       </c>
       <c r="AJ38" s="9" t="str">
-        <f t="shared" ref="AJ38:AJ58" si="22">IF($AB38=0,"",G38/$AB38)</f>
+        <f t="shared" ref="AJ38:AJ58" si="22">IF($AB38=0,"",F38/$AB38)</f>
         <v/>
       </c>
       <c r="AK38" s="9" t="str">
-        <f t="shared" ref="AK38:AK58" si="23">IF($AB38=0,"",H38/$AB38)</f>
-        <v/>
-      </c>
-      <c r="AL38" s="10" t="str">
+        <f t="shared" ref="AK38:AK58" si="23">IF($AB38=0,"",G38/$AB38)</f>
+        <v/>
+      </c>
+      <c r="AL38" s="9" t="str">
+        <f t="shared" ref="AL38:AL58" si="24">IF($AB38=0,"",H38/$AB38)</f>
+        <v/>
+      </c>
+      <c r="AM38" s="10" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AM38" s="9" t="str">
-        <f t="shared" ref="AM38:AM58" si="24">IF($Y38=0,"",N38/$Y38)</f>
-        <v/>
-      </c>
       <c r="AN38" s="9" t="str">
-        <f t="shared" ref="AN38:AN58" si="25">IF($Y38=0,"",O38/$Y38)</f>
+        <f t="shared" ref="AN38:AN58" si="25">IF($Y38=0,"",N38/$Y38)</f>
         <v/>
       </c>
       <c r="AO38" s="9" t="str">
-        <f t="shared" ref="AO38:AO58" si="26">IF($Y38=0,"",P38/$Y38)</f>
+        <f t="shared" ref="AO38:AO58" si="26">IF($Y38=0,"",O38/$Y38)</f>
         <v/>
       </c>
       <c r="AP38" s="9" t="str">
-        <f t="shared" ref="AP38:AP58" si="27">IF($Y38=0,"",Q38/$Y38)</f>
+        <f t="shared" ref="AP38:AP58" si="27">IF($Y38=0,"",P38/$Y38)</f>
         <v/>
       </c>
       <c r="AQ38" s="9" t="str">
-        <f t="shared" ref="AQ38:AQ58" si="28">IF($Y38=0,"",R38/$Y38)</f>
+        <f t="shared" ref="AQ38:AQ58" si="28">IF($Y38=0,"",Q38/$Y38)</f>
         <v/>
       </c>
       <c r="AR38" s="9" t="str">
-        <f t="shared" ref="AR38:AR58" si="29">IF($Y38=0,"",S38/$Y38)</f>
+        <f t="shared" ref="AR38:AR58" si="29">IF($Y38=0,"",R38/$Y38)</f>
         <v/>
       </c>
       <c r="AS38" s="9" t="str">
-        <f t="shared" ref="AS38:AS58" si="30">IF($Y38=0,"",T38/$Y38)</f>
+        <f t="shared" ref="AS38:AS58" si="30">IF($Y38=0,"",S38/$Y38)</f>
         <v/>
       </c>
       <c r="AT38" s="9" t="str">
-        <f t="shared" ref="AT38:AT58" si="31">IF($Y38=0,"",V38/$Y38)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AU38" s="9" t="str">
-        <f t="shared" ref="AU38:AU58" si="32">IF($Y38=0,"",W38/$Y38)</f>
-        <v/>
-      </c>
-      <c r="AV38" s="11"/>
+        <f t="shared" ref="AU38:AU58" si="31">IF($Y38=0,"",V38/$Y38)</f>
+        <v/>
+      </c>
+      <c r="AV38" s="9" t="str">
+        <f t="shared" ref="AV38:AV58" si="32">IF($Y38=0,"",W38/$Y38)</f>
+        <v/>
+      </c>
+      <c r="AW38" s="11"/>
       <c r="BY38" s="67"/>
       <c r="BZ38" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
     </row>
@@ -19685,20 +19883,20 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="9" t="str">
+      <c r="AD39" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE39" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE39" s="9" t="str">
+      <c r="AF39" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF39" s="9" t="str">
+      <c r="AG39" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG39" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH39" s="9" t="str">
@@ -19717,12 +19915,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL39" s="10" t="str">
+      <c r="AL39" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM39" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM39" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN39" s="9" t="str">
@@ -19750,17 +19948,21 @@
         <v/>
       </c>
       <c r="AT39" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU39" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU39" s="9" t="str">
+      <c r="AV39" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
       <c r="BY39" s="67"/>
       <c r="BZ39" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
     </row>
@@ -19800,20 +20002,20 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AD40" s="9" t="str">
+      <c r="AD40" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE40" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE40" s="9" t="str">
+      <c r="AF40" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF40" s="9" t="str">
+      <c r="AG40" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG40" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH40" s="9" t="str">
@@ -19832,12 +20034,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL40" s="10" t="str">
+      <c r="AL40" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM40" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM40" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN40" s="9" t="str">
@@ -19865,17 +20067,21 @@
         <v/>
       </c>
       <c r="AT40" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU40" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU40" s="9" t="str">
+      <c r="AV40" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
       <c r="BY40" s="67"/>
       <c r="BZ40" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
     </row>
@@ -19915,20 +20121,20 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="9" t="str">
+      <c r="AD41" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE41" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE41" s="9" t="str">
+      <c r="AF41" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF41" s="9" t="str">
+      <c r="AG41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG41" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH41" s="9" t="str">
@@ -19947,12 +20153,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL41" s="10" t="str">
+      <c r="AL41" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM41" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM41" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN41" s="9" t="str">
@@ -19980,17 +20186,21 @@
         <v/>
       </c>
       <c r="AT41" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU41" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU41" s="9" t="str">
+      <c r="AV41" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
       <c r="BY41" s="67"/>
       <c r="BZ41" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>36</v>
       </c>
     </row>
@@ -20030,20 +20240,20 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
-      <c r="AD42" s="9" t="str">
+      <c r="AD42" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE42" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE42" s="9" t="str">
+      <c r="AF42" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF42" s="9" t="str">
+      <c r="AG42" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG42" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH42" s="9" t="str">
@@ -20062,12 +20272,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL42" s="10" t="str">
+      <c r="AL42" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM42" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM42" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN42" s="9" t="str">
@@ -20095,17 +20305,21 @@
         <v/>
       </c>
       <c r="AT42" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU42" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU42" s="9" t="str">
+      <c r="AV42" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
       <c r="BY42" s="67"/>
       <c r="BZ42" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>37</v>
       </c>
     </row>
@@ -20145,20 +20359,20 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-      <c r="AD43" s="9" t="str">
+      <c r="AD43" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE43" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE43" s="9" t="str">
+      <c r="AF43" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF43" s="9" t="str">
+      <c r="AG43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG43" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH43" s="9" t="str">
@@ -20177,12 +20391,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL43" s="10" t="str">
+      <c r="AL43" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM43" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM43" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN43" s="9" t="str">
@@ -20210,17 +20424,21 @@
         <v/>
       </c>
       <c r="AT43" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU43" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU43" s="9" t="str">
+      <c r="AV43" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
       <c r="BY43" s="67"/>
       <c r="BZ43" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>38</v>
       </c>
     </row>
@@ -20260,20 +20478,20 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
-      <c r="AD44" s="9" t="str">
+      <c r="AD44" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE44" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE44" s="9" t="str">
+      <c r="AF44" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF44" s="9" t="str">
+      <c r="AG44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG44" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH44" s="9" t="str">
@@ -20292,12 +20510,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL44" s="10" t="str">
+      <c r="AL44" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM44" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM44" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN44" s="9" t="str">
@@ -20325,17 +20543,21 @@
         <v/>
       </c>
       <c r="AT44" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU44" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU44" s="9" t="str">
+      <c r="AV44" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
       <c r="BY44" s="67"/>
       <c r="BZ44" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
     </row>
@@ -20375,20 +20597,20 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
-      <c r="AD45" s="9" t="str">
+      <c r="AD45" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE45" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE45" s="9" t="str">
+      <c r="AF45" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF45" s="9" t="str">
+      <c r="AG45" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG45" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH45" s="9" t="str">
@@ -20407,12 +20629,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL45" s="10" t="str">
+      <c r="AL45" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM45" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM45" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN45" s="9" t="str">
@@ -20440,17 +20662,21 @@
         <v/>
       </c>
       <c r="AT45" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU45" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU45" s="9" t="str">
+      <c r="AV45" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
       <c r="BY45" s="67"/>
       <c r="BZ45" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
     </row>
@@ -20490,20 +20716,20 @@
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
-      <c r="AD46" s="9" t="str">
+      <c r="AD46" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE46" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE46" s="9" t="str">
+      <c r="AF46" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF46" s="9" t="str">
+      <c r="AG46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG46" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH46" s="9" t="str">
@@ -20522,12 +20748,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL46" s="10" t="str">
+      <c r="AL46" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM46" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM46" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN46" s="9" t="str">
@@ -20555,17 +20781,21 @@
         <v/>
       </c>
       <c r="AT46" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU46" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU46" s="9" t="str">
+      <c r="AV46" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
       <c r="BY46" s="67"/>
       <c r="BZ46" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>41</v>
       </c>
     </row>
@@ -20605,20 +20835,20 @@
       <c r="AA47" s="8"/>
       <c r="AB47" s="8"/>
       <c r="AC47" s="8"/>
-      <c r="AD47" s="9" t="str">
+      <c r="AD47" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE47" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE47" s="9" t="str">
+      <c r="AF47" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF47" s="9" t="str">
+      <c r="AG47" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG47" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH47" s="9" t="str">
@@ -20637,12 +20867,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL47" s="10" t="str">
+      <c r="AL47" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM47" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM47" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN47" s="9" t="str">
@@ -20670,17 +20900,21 @@
         <v/>
       </c>
       <c r="AT47" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU47" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU47" s="9" t="str">
+      <c r="AV47" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
       <c r="BY47" s="67"/>
       <c r="BZ47" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42</v>
       </c>
     </row>
@@ -20720,20 +20954,20 @@
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
-      <c r="AD48" s="9" t="str">
+      <c r="AD48" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE48" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE48" s="9" t="str">
+      <c r="AF48" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF48" s="9" t="str">
+      <c r="AG48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG48" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH48" s="9" t="str">
@@ -20752,12 +20986,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL48" s="10" t="str">
+      <c r="AL48" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM48" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM48" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN48" s="9" t="str">
@@ -20785,17 +21019,21 @@
         <v/>
       </c>
       <c r="AT48" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU48" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU48" s="9" t="str">
+      <c r="AV48" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
       <c r="BY48" s="67"/>
       <c r="BZ48" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>43</v>
       </c>
     </row>
@@ -20835,20 +21073,20 @@
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
-      <c r="AD49" s="9" t="str">
+      <c r="AD49" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE49" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE49" s="9" t="str">
+      <c r="AF49" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF49" s="9" t="str">
+      <c r="AG49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG49" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH49" s="9" t="str">
@@ -20867,12 +21105,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL49" s="10" t="str">
+      <c r="AL49" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM49" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM49" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN49" s="9" t="str">
@@ -20900,17 +21138,21 @@
         <v/>
       </c>
       <c r="AT49" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU49" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU49" s="9" t="str">
+      <c r="AV49" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
       <c r="BY49" s="67"/>
       <c r="BZ49" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>44</v>
       </c>
     </row>
@@ -20950,20 +21192,20 @@
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
-      <c r="AD50" s="9" t="str">
+      <c r="AD50" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE50" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE50" s="9" t="str">
+      <c r="AF50" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF50" s="9" t="str">
+      <c r="AG50" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG50" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH50" s="9" t="str">
@@ -20982,12 +21224,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL50" s="10" t="str">
+      <c r="AL50" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM50" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM50" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN50" s="9" t="str">
@@ -21015,17 +21257,21 @@
         <v/>
       </c>
       <c r="AT50" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU50" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU50" s="9" t="str">
+      <c r="AV50" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
       <c r="BY50" s="67"/>
       <c r="BZ50" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
     </row>
@@ -21065,20 +21311,20 @@
       <c r="AA51" s="8"/>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
-      <c r="AD51" s="9" t="str">
+      <c r="AD51" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE51" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE51" s="9" t="str">
+      <c r="AF51" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF51" s="9" t="str">
+      <c r="AG51" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG51" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH51" s="9" t="str">
@@ -21097,12 +21343,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL51" s="10" t="str">
+      <c r="AL51" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM51" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM51" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN51" s="9" t="str">
@@ -21130,17 +21376,21 @@
         <v/>
       </c>
       <c r="AT51" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU51" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU51" s="9" t="str">
+      <c r="AV51" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
       <c r="BY51" s="67"/>
       <c r="BZ51" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>46</v>
       </c>
     </row>
@@ -21180,20 +21430,20 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
-      <c r="AD52" s="9" t="str">
+      <c r="AD52" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE52" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE52" s="9" t="str">
+      <c r="AF52" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF52" s="9" t="str">
+      <c r="AG52" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG52" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH52" s="9" t="str">
@@ -21212,12 +21462,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL52" s="10" t="str">
+      <c r="AL52" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM52" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM52" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN52" s="9" t="str">
@@ -21245,17 +21495,21 @@
         <v/>
       </c>
       <c r="AT52" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU52" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU52" s="9" t="str">
+      <c r="AV52" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV52" s="11"/>
+      <c r="AW52" s="11"/>
       <c r="BY52" s="67"/>
       <c r="BZ52" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
     </row>
@@ -21295,20 +21549,20 @@
       <c r="AA53" s="8"/>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
-      <c r="AD53" s="9" t="str">
+      <c r="AD53" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE53" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE53" s="9" t="str">
+      <c r="AF53" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF53" s="9" t="str">
+      <c r="AG53" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG53" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH53" s="9" t="str">
@@ -21327,12 +21581,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL53" s="10" t="str">
+      <c r="AL53" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM53" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM53" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN53" s="9" t="str">
@@ -21360,27 +21614,31 @@
         <v/>
       </c>
       <c r="AT53" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU53" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU53" s="9" t="str">
+      <c r="AV53" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV53" s="11"/>
-      <c r="AZ53" s="113" t="str">
+      <c r="AW53" s="11"/>
+      <c r="BA53" s="138" t="str">
         <f>"INDICADORES ACUMULADOS PARA EL AÑO " &amp; Leyendas!$A$2 &amp; CHAR(10) &amp; "(para el cálculo se utilizaron muestras totales)"</f>
         <v>INDICADORES ACUMULADOS PARA EL AÑO 2020
 (para el cálculo se utilizaron muestras totales)</v>
       </c>
-      <c r="BA53" s="113"/>
-      <c r="BB53" s="113"/>
-      <c r="BC53" s="113"/>
-      <c r="BD53" s="113"/>
-      <c r="BE53" s="113"/>
+      <c r="BB53" s="138"/>
+      <c r="BC53" s="138"/>
+      <c r="BD53" s="138"/>
+      <c r="BE53" s="138"/>
+      <c r="BF53" s="138"/>
       <c r="BY53" s="67"/>
       <c r="BZ53" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>48</v>
       </c>
     </row>
@@ -21420,20 +21678,20 @@
       <c r="AA54" s="8"/>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
-      <c r="AD54" s="9" t="str">
+      <c r="AD54" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE54" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE54" s="9" t="str">
+      <c r="AF54" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF54" s="9" t="str">
+      <c r="AG54" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG54" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH54" s="9" t="str">
@@ -21452,12 +21710,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL54" s="10" t="str">
+      <c r="AL54" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM54" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM54" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN54" s="9" t="str">
@@ -21485,28 +21743,32 @@
         <v/>
       </c>
       <c r="AT54" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU54" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU54" s="9" t="str">
+      <c r="AV54" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV54" s="11"/>
-      <c r="AZ54" s="114" t="s">
+      <c r="AW54" s="11"/>
+      <c r="BA54" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="BA54" s="115"/>
-      <c r="BB54" s="115"/>
-      <c r="BC54" s="115"/>
-      <c r="BD54" s="116"/>
-      <c r="BE54" s="19">
+      <c r="BB54" s="140"/>
+      <c r="BC54" s="140"/>
+      <c r="BD54" s="140"/>
+      <c r="BE54" s="141"/>
+      <c r="BF54" s="19">
         <f>Z58/Y58</f>
-        <v>0.4</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="BY54" s="67"/>
       <c r="BZ54" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
     </row>
@@ -21546,20 +21808,20 @@
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
-      <c r="AD55" s="9" t="str">
+      <c r="AD55" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE55" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE55" s="9" t="str">
+      <c r="AF55" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF55" s="9" t="str">
+      <c r="AG55" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG55" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH55" s="9" t="str">
@@ -21578,12 +21840,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL55" s="10" t="str">
+      <c r="AL55" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM55" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM55" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN55" s="9" t="str">
@@ -21611,28 +21873,32 @@
         <v/>
       </c>
       <c r="AT55" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU55" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU55" s="9" t="str">
+      <c r="AV55" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV55" s="11"/>
-      <c r="AZ55" s="114" t="s">
+      <c r="AW55" s="11"/>
+      <c r="BA55" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="BA55" s="115"/>
-      <c r="BB55" s="115"/>
-      <c r="BC55" s="115"/>
-      <c r="BD55" s="116"/>
-      <c r="BE55" s="19">
+      <c r="BB55" s="140"/>
+      <c r="BC55" s="140"/>
+      <c r="BD55" s="140"/>
+      <c r="BE55" s="141"/>
+      <c r="BF55" s="19">
         <f>AA58/Y58</f>
-        <v>0.24285714285714285</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="BY55" s="67"/>
       <c r="BZ55" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
     </row>
@@ -21672,20 +21938,20 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
-      <c r="AD56" s="9" t="str">
+      <c r="AD56" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE56" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE56" s="9" t="str">
+      <c r="AF56" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF56" s="9" t="str">
+      <c r="AG56" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG56" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH56" s="9" t="str">
@@ -21704,12 +21970,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL56" s="10" t="str">
+      <c r="AL56" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM56" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM56" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN56" s="9" t="str">
@@ -21737,28 +22003,32 @@
         <v/>
       </c>
       <c r="AT56" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU56" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU56" s="9" t="str">
+      <c r="AV56" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV56" s="11"/>
-      <c r="AZ56" s="23"/>
-      <c r="BA56" s="114" t="s">
+      <c r="AW56" s="11"/>
+      <c r="BA56" s="23"/>
+      <c r="BB56" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="BB56" s="115"/>
-      <c r="BC56" s="115"/>
-      <c r="BD56" s="116"/>
-      <c r="BE56" s="19">
+      <c r="BC56" s="140"/>
+      <c r="BD56" s="140"/>
+      <c r="BE56" s="141"/>
+      <c r="BF56" s="19">
         <f>AB58/Y58</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="BY56" s="67"/>
       <c r="BZ56" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>51</v>
       </c>
     </row>
@@ -21798,20 +22068,20 @@
       <c r="AA57" s="8"/>
       <c r="AB57" s="8"/>
       <c r="AC57" s="8"/>
-      <c r="AD57" s="9" t="str">
+      <c r="AD57" s="8" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="AE57" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE57" s="9" t="str">
+      <c r="AF57" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AF57" s="9" t="str">
+      <c r="AG57" s="9" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AG57" s="9" t="str">
-        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH57" s="9" t="str">
@@ -21830,12 +22100,12 @@
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AL57" s="10" t="str">
+      <c r="AL57" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="AM57" s="10" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="AM57" s="9" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN57" s="9" t="str">
@@ -21863,28 +22133,32 @@
         <v/>
       </c>
       <c r="AT57" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="AU57" s="9" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AU57" s="9" t="str">
+      <c r="AV57" s="9" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="AV57" s="11"/>
-      <c r="AZ57" s="23"/>
-      <c r="BA57" s="114" t="s">
+      <c r="AW57" s="11"/>
+      <c r="BA57" s="23"/>
+      <c r="BB57" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="BB57" s="115"/>
-      <c r="BC57" s="115"/>
-      <c r="BD57" s="116"/>
-      <c r="BE57" s="19">
+      <c r="BC57" s="140"/>
+      <c r="BD57" s="140"/>
+      <c r="BE57" s="141"/>
+      <c r="BF57" s="19">
         <f>AC58/Y58</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="BY57" s="67"/>
       <c r="BZ57" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>52</v>
       </c>
     </row>
@@ -21918,7 +22192,7 @@
       </c>
       <c r="J58" s="14">
         <f>SUM(J$6:J57)</f>
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="K58" s="14">
         <f>SUM(K$6:K57)</f>
@@ -21934,11 +22208,11 @@
       </c>
       <c r="N58" s="14">
         <f>SUM(N$6:N57)</f>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O58" s="14">
         <f>SUM(O$6:O57)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P58" s="14">
         <f>SUM(P$6:P57)</f>
@@ -21962,7 +22236,7 @@
       </c>
       <c r="U58" s="14">
         <f>SUM(U$6:U57)</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="V58" s="14">
         <f>SUM(V$6:V57)</f>
@@ -21978,11 +22252,11 @@
       </c>
       <c r="Y58" s="14">
         <f>SUM(Y$6:Y57)</f>
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Z58" s="14">
         <f>SUM(Z$6:Z57)</f>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA58" s="14">
         <f>SUM(AA$6:AA57)</f>
@@ -21996,88 +22270,92 @@
         <f>SUM(AC$6:AC57)</f>
         <v>35</v>
       </c>
-      <c r="AD58" s="15">
+      <c r="AD58" s="14">
+        <f t="shared" si="17"/>
+        <v>632</v>
+      </c>
+      <c r="AE58" s="15">
         <f>IF(Y58=0,"",Z58/Y58)</f>
-        <v>0.4</v>
-      </c>
-      <c r="AE58" s="15">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="AF58" s="15">
         <f>IF(Y58=0,"",AA58/Y58)</f>
-        <v>0.24285714285714285</v>
-      </c>
-      <c r="AF58" s="15">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="AG58" s="15">
         <f>IF(Y58=0,"",AB58/Y58)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AG58" s="15">
-        <f t="shared" si="19"/>
-        <v>1.7142857142857142</v>
+        <v>0.25</v>
       </c>
       <c r="AH58" s="15">
         <f t="shared" si="20"/>
-        <v>0.6428571428571429</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="AI58" s="15">
         <f t="shared" si="21"/>
-        <v>0.75714285714285712</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AJ58" s="15">
         <f t="shared" si="22"/>
-        <v>0.5</v>
+        <v>0.75714285714285712</v>
       </c>
       <c r="AK58" s="15">
         <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="AL58" s="15">
+        <f t="shared" si="24"/>
         <v>0.21428571428571427</v>
       </c>
-      <c r="AL58" s="15">
+      <c r="AM58" s="15">
         <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="AM58" s="15">
-        <f t="shared" si="24"/>
-        <v>0.34285714285714286</v>
+        <v>0.125</v>
       </c>
       <c r="AN58" s="15">
         <f t="shared" si="25"/>
-        <v>0.12857142857142856</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="AO58" s="15">
         <f t="shared" si="26"/>
-        <v>0.15142857142857144</v>
+        <v>0.125</v>
       </c>
       <c r="AP58" s="15">
         <f t="shared" si="27"/>
-        <v>0.1</v>
+        <v>0.18928571428571428</v>
       </c>
       <c r="AQ58" s="15">
         <f t="shared" si="28"/>
-        <v>4.2857142857142858E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AR58" s="15">
         <f t="shared" si="29"/>
-        <v>5.4285714285714284E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="AS58" s="15">
         <f t="shared" si="30"/>
-        <v>0.5485714285714286</v>
+        <v>6.7857142857142852E-2</v>
       </c>
       <c r="AT58" s="15">
+        <f>IF(OR($AD58=0, $AD58=""),"",T58/$AD58)</f>
+        <v>0.30379746835443039</v>
+      </c>
+      <c r="AU58" s="15">
         <f t="shared" si="31"/>
-        <v>9.4285714285714292E-2</v>
-      </c>
-      <c r="AU58" s="15">
+        <v>0.11785714285714285</v>
+      </c>
+      <c r="AV58" s="15">
         <f t="shared" si="32"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AZ58" s="117" t="s">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="BA58" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="BA58" s="118"/>
-      <c r="BB58" s="118"/>
-      <c r="BC58" s="118"/>
-      <c r="BD58" s="119"/>
-      <c r="BE58" s="19">
+      <c r="BB58" s="143"/>
+      <c r="BC58" s="143"/>
+      <c r="BD58" s="143"/>
+      <c r="BE58" s="144"/>
+      <c r="BF58" s="19">
         <f>SUM(N58:W58)/Y58</f>
-        <v>1.6028571428571428</v>
+        <v>3.5035714285714286</v>
       </c>
       <c r="BY58" s="69"/>
       <c r="BZ58" s="69"/>
@@ -22088,7 +22366,6 @@
       <c r="AA59" s="17"/>
       <c r="AB59" s="17"/>
       <c r="AC59" s="17"/>
-      <c r="AD59" s="18"/>
       <c r="AE59" s="18"/>
       <c r="AF59" s="18"/>
       <c r="AG59" s="18"/>
@@ -22106,6 +22383,7 @@
       <c r="AS59" s="18"/>
       <c r="AT59" s="18"/>
       <c r="AU59" s="18"/>
+      <c r="AV59" s="18"/>
     </row>
     <row r="60" spans="1:78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y60" s="17"/>
@@ -22113,11 +22391,11 @@
       <c r="AA60" s="17"/>
       <c r="AB60" s="17"/>
       <c r="AC60" s="17"/>
-      <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
       <c r="AF60" s="17"/>
       <c r="AG60" s="17"/>
       <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
     </row>
     <row r="61" spans="1:78" s="20" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T61" s="21"/>
@@ -22130,10 +22408,11 @@
       <c r="AD61" s="22"/>
       <c r="AE61" s="22"/>
       <c r="AF61" s="22"/>
-      <c r="AG61" s="21"/>
+      <c r="AG61" s="22"/>
       <c r="AH61" s="21"/>
-      <c r="AS61" s="21"/>
-      <c r="BN61" s="21"/>
+      <c r="AI61" s="21"/>
+      <c r="AT61" s="21"/>
+      <c r="BO61" s="21"/>
       <c r="BY61" s="70"/>
       <c r="BZ61" s="70"/>
     </row>
@@ -22148,10 +22427,11 @@
       <c r="AD62" s="22"/>
       <c r="AE62" s="22"/>
       <c r="AF62" s="22"/>
-      <c r="AG62" s="21"/>
+      <c r="AG62" s="22"/>
       <c r="AH62" s="21"/>
-      <c r="AS62" s="21"/>
-      <c r="BN62" s="21"/>
+      <c r="AI62" s="21"/>
+      <c r="AT62" s="21"/>
+      <c r="BO62" s="21"/>
       <c r="BY62" s="70"/>
       <c r="BZ62" s="70"/>
     </row>
@@ -22166,10 +22446,11 @@
       <c r="AD63" s="22"/>
       <c r="AE63" s="22"/>
       <c r="AF63" s="22"/>
-      <c r="AG63" s="21"/>
+      <c r="AG63" s="22"/>
       <c r="AH63" s="21"/>
-      <c r="AS63" s="21"/>
-      <c r="BN63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AT63" s="21"/>
+      <c r="BO63" s="21"/>
       <c r="BY63" s="70"/>
       <c r="BZ63" s="70"/>
     </row>
@@ -22184,108 +22465,111 @@
       <c r="AD64" s="22"/>
       <c r="AE64" s="22"/>
       <c r="AF64" s="22"/>
-      <c r="AG64" s="21"/>
+      <c r="AG64" s="22"/>
       <c r="AH64" s="21"/>
-      <c r="AS64" s="21"/>
-      <c r="BN64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="BO64" s="21"/>
       <c r="BY64" s="70"/>
       <c r="BZ64" s="70"/>
     </row>
-    <row r="65" spans="25:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="25:35" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y65" s="17"/>
       <c r="Z65" s="17"/>
       <c r="AA65" s="17"/>
       <c r="AB65" s="17"/>
       <c r="AC65" s="17"/>
-      <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
       <c r="AF65" s="17"/>
       <c r="AG65" s="17"/>
       <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
     </row>
-    <row r="66" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y66" s="24"/>
       <c r="Z66" s="17"/>
       <c r="AA66" s="17"/>
       <c r="AB66" s="17"/>
       <c r="AC66" s="17"/>
-      <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
       <c r="AF66" s="17"/>
       <c r="AG66" s="17"/>
       <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
     </row>
-    <row r="67" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y67" s="24"/>
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
       <c r="AB67" s="17"/>
       <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="17"/>
       <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
     </row>
-    <row r="68" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y68" s="24"/>
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
       <c r="AC68" s="17"/>
-      <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
       <c r="AF68" s="17"/>
       <c r="AG68" s="17"/>
       <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
     </row>
-    <row r="69" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y69" s="25"/>
     </row>
-    <row r="70" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y71" s="25"/>
     </row>
-    <row r="72" spans="25:34" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="25:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Y72" s="26"/>
     </row>
-    <row r="73" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y73" s="27"/>
     </row>
-    <row r="74" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y74" s="27"/>
     </row>
-    <row r="75" spans="25:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="25:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="Y75" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="A3:X3"/>
     <mergeCell ref="A2:X2"/>
     <mergeCell ref="A1:X1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="BA56:BD56"/>
-    <mergeCell ref="BA57:BD57"/>
-    <mergeCell ref="AZ58:BD58"/>
-    <mergeCell ref="AZ54:BD54"/>
-    <mergeCell ref="AZ55:BD55"/>
-    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="BA53:BF53"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="BB56:BE56"/>
+    <mergeCell ref="BB57:BE57"/>
+    <mergeCell ref="BA58:BE58"/>
+    <mergeCell ref="BA54:BE54"/>
+    <mergeCell ref="BA55:BE55"/>
+    <mergeCell ref="AH4:AL4"/>
     <mergeCell ref="AQ4:AQ5"/>
     <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="AT4:AT5"/>
-    <mergeCell ref="AZ53:BE53"/>
     <mergeCell ref="AS4:AS5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="Y1:AD3"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE1:AV3"/>
     <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="AF4:AF5"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="Y1:AC3"/>
-    <mergeCell ref="AD1:AU3"/>
-    <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -22293,12 +22577,11 @@
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AM4:AM5"/>
     <mergeCell ref="AN4:AN5"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AM5"/>
-    <mergeCell ref="AA4:AA5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -22331,49 +22614,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="str">
+      <c r="A1" s="156" t="str">
         <f>Leyendas!$T$2</f>
         <v>País: Costa Rica - Establecimiento: Establec. 01</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="str">
+      <c r="A2" s="153" t="str">
         <f>"Vigilancia de Influenza - "&amp; Leyendas!$G$2 &amp; Leyendas!$T1</f>
         <v>Vigilancia de Influenza - IRAG y ETI, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="130"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="1:10" s="41" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="str">
+      <c r="A3" s="150" t="str">
         <f xml:space="preserve"> "Distribución de virus Influenza por " &amp; Leyendas!$F$2 &amp; " de residencia del caso"</f>
         <v>Distribución de virus Influenza por provincia de residencia del caso</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="127"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
     </row>
     <row r="4" spans="1:10" s="44" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="str">
@@ -24102,49 +24385,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="str">
+      <c r="A1" s="156" t="str">
         <f>Leyendas!$T$2</f>
         <v>País: Costa Rica - Establecimiento: Establec. 01</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="128" t="str">
+      <c r="A2" s="153" t="str">
         <f>"Vigilancia de VSR - " &amp; Leyendas!$G$2 &amp; Leyendas!$T1</f>
         <v>Vigilancia de VSR - IRAG y ETI, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="130"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
     </row>
     <row r="3" spans="1:10" s="41" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="str">
+      <c r="A3" s="159" t="str">
         <f xml:space="preserve"> "Distribución de virus VSR por " &amp; Leyendas!$F$2 &amp; " de residencia del caso"</f>
         <v>Distribución de virus VSR por provincia de residencia del caso</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="136"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="161"/>
     </row>
     <row r="4" spans="1:10" s="44" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="str">
@@ -25889,6 +26172,1819 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9" style="33" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="17" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="33" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="41" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="156" t="str">
+        <f>Leyendas!$T$2</f>
+        <v>País: Costa Rica - Establecimiento: Establec. 01</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
+    </row>
+    <row r="2" spans="1:10" s="41" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="153" t="str">
+        <f>"Vigilancia de SARS-CoV-2 - " &amp; Leyendas!$G$2 &amp; Leyendas!$T1</f>
+        <v>Vigilancia de SARS-CoV-2 - IRAG y ETI, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
+      </c>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
+    </row>
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="159" t="str">
+        <f xml:space="preserve"> "Distribución de virus SARS-CoV-2 por " &amp; Leyendas!$F$2 &amp; " de residencia del caso"</f>
+        <v>Distribución de virus SARS-CoV-2 por provincia de residencia del caso</v>
+      </c>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="161"/>
+    </row>
+    <row r="4" spans="1:10" s="44" customFormat="1" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99" t="str">
+        <f>IF(Leyendas!$E$2&lt;&gt;"",Leyendas!$E$1,IF(Leyendas!$D$2&lt;&gt;"",Leyendas!$D$1,Leyendas!$C$1))</f>
+        <v>Establecimiento</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="45">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="45">
+        <v>2</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="45">
+        <v>3</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="45">
+        <v>4</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="45">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="45">
+        <v>6</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="45">
+        <v>7</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="45">
+        <v>8</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="45">
+        <v>9</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="45">
+        <v>10</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="45">
+        <v>11</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="45">
+        <v>12</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="45">
+        <v>13</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="45">
+        <v>14</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="45">
+        <v>15</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="45">
+        <v>16</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="45">
+        <v>17</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="45">
+        <v>18</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C23" s="45">
+        <v>19</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C24" s="45">
+        <v>20</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="45">
+        <v>21</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C26" s="45">
+        <v>22</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="45">
+        <v>23</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="45">
+        <v>24</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C29" s="45">
+        <v>25</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="45">
+        <v>26</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C31" s="45">
+        <v>27</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="45">
+        <v>28</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C33" s="45">
+        <v>29</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="45">
+        <v>30</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C35" s="45">
+        <v>31</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="45">
+        <v>32</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C37" s="45">
+        <v>33</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C38" s="45">
+        <v>34</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="45">
+        <v>35</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="45">
+        <v>36</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C41" s="45">
+        <v>37</v>
+      </c>
+      <c r="D41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C42" s="45">
+        <v>38</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="45">
+        <v>39</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="45">
+        <v>40</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C45" s="45">
+        <v>41</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C46" s="45">
+        <v>42</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C47" s="45">
+        <v>43</v>
+      </c>
+      <c r="D47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C48" s="45">
+        <v>44</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C49" s="45">
+        <v>45</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="45">
+        <v>46</v>
+      </c>
+      <c r="D50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="45">
+        <v>47</v>
+      </c>
+      <c r="D51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C52" s="45">
+        <v>48</v>
+      </c>
+      <c r="D52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C53" s="45">
+        <v>49</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="45">
+        <v>50</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="45">
+        <v>51</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="45">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="45">
+        <v>52</v>
+      </c>
+      <c r="D56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="14">
+        <f>SUM(D$5:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <f>SUM(E$5:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
+        <f>SUM(F$5:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <f>SUM(G$5:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <f>SUM(H$5:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="14">
+        <f>SUM(I$5:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
+        <f>SUM(J$5:J56)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
@@ -25916,27 +28012,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" customWidth="1"/>
     <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.140625" customWidth="1"/>
     <col min="20" max="20" width="76.7109375" customWidth="1"/>
@@ -25947,7 +28046,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>63</v>
@@ -25959,16 +28058,16 @@
         <v>65</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="60" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>101</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>102</v>
       </c>
       <c r="J1" s="49" t="s">
         <v>66</v>
@@ -25977,16 +28076,16 @@
         <v>67</v>
       </c>
       <c r="L1" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>104</v>
       </c>
       <c r="P1" s="49" t="s">
         <v>84</v>
@@ -25997,10 +28096,10 @@
       <c r="R1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="T1" s="144" t="str">
+      <c r="S1" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="T1" s="91" t="str">
         <f>IF(YearFromRepo&lt;&gt;YearToRepo,  ", " &amp; YearFromRepo &amp; " - " &amp; YearToRepo, IF(AND(MonthRepo="", WeekEWRepo="", YearFromRepo&lt;&gt;""), ", " &amp; YearFromRepo, "") ) &amp;
 IF(StartDateRepo&lt;&gt;"", ", " &amp; TEXT(StartDateRepo,"DD/MM/YYYY") &amp; " - " &amp; TEXT(EndDateRepo,"DD/MM/YYYY"),  "") &amp;
 IF(MonthRepo&lt;&gt;"", ", " &amp; MonthLabelRepo &amp; ": " &amp; YearRepo &amp; "-" &amp; TEXT(MonthRepo, "00"), "") &amp;
@@ -26013,19 +28112,19 @@
         <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>110</v>
-      </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
         <v>68</v>
@@ -26047,7 +28146,7 @@
       </c>
       <c r="M2" s="75"/>
       <c r="N2" s="75"/>
-      <c r="O2" s="137">
+      <c r="O2" s="84">
         <v>12</v>
       </c>
       <c r="P2" s="47" t="s">
@@ -26056,13 +28155,13 @@
       <c r="Q2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="139">
+      <c r="R2" s="86">
         <v>1</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="145" t="str">
+        <v>106</v>
+      </c>
+      <c r="T2" s="92" t="str">
         <f>"País: " &amp; $C$2 &amp; IF($E$2 &lt;&gt; "", " - " &amp; $E$1 &amp; ": " &amp; $E$2, IF($D$2 &lt;&gt; "", " - " &amp; $D$1 &amp; ": " &amp; $D$2, ""))</f>
         <v>País: Costa Rica - Establecimiento: Establec. 01</v>
       </c>
@@ -26078,9 +28177,9 @@
         <v>71</v>
       </c>
       <c r="L3" s="79" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="85" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="48" t="s">
@@ -26089,13 +28188,13 @@
       <c r="Q3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="140">
+      <c r="R3" s="87">
         <v>1</v>
       </c>
       <c r="S3" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="T3" s="145" t="str">
+        <v>107</v>
+      </c>
+      <c r="T3" s="92" t="str">
         <f xml:space="preserve"> $C$2 &amp; IF($E$2 &lt;&gt; "", " - " &amp; $E$2, IF($D$2 &lt;&gt; "", ", " &amp; $D$2, ""))</f>
         <v>Costa Rica - Establec. 01</v>
       </c>
@@ -26109,11 +28208,11 @@
       <c r="Q4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="140">
+      <c r="R4" s="87">
         <v>1</v>
       </c>
       <c r="S4" s="61"/>
-      <c r="T4" s="146" t="str">
+      <c r="T4" s="93" t="str">
         <f>CHAR(10) &amp; $C$2 &amp;
 IF(YearFromRepo&lt;&gt;YearToRepo,  ", " &amp; YearFromRepo &amp; " - " &amp; YearToRepo, IF(AND(MonthRepo="", WeekEWRepo="", YearFromRepo&lt;&gt;""), ", " &amp; YearFromRepo, "") ) &amp;
 IF(StartDateRepo&lt;&gt;"", ", " &amp; TEXT(StartDateRepo,"DD/MM/YYYY") &amp; " - " &amp; TEXT(EndDateRepo,"DD/MM/YYYY"),  "") &amp;
@@ -26136,16 +28235,16 @@
 Costa Rica - Establec. 01, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="R5" s="140">
+      <c r="R5" s="87">
         <v>1</v>
       </c>
       <c r="S5" s="75"/>
-      <c r="T5" s="147"/>
+      <c r="T5" s="94"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -26160,10 +28259,14 @@
 Costa Rica - Establec. 01, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
       <c r="P6" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="140"/>
+        <v>111</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="87">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -26178,10 +28281,10 @@
 Costa Rica - Establec. 01, 2019 - 2020, 01/03/2020 - 31/03/2020, Mes: 2020-05, SE: 2020-12</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="56"/>
-      <c r="R7" s="140"/>
+      <c r="R7" s="87"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -26197,7 +28300,7 @@
       </c>
       <c r="P8" s="48"/>
       <c r="Q8" s="55"/>
-      <c r="R8" s="141"/>
+      <c r="R8" s="88"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -26213,7 +28316,7 @@
       </c>
       <c r="P9" s="52"/>
       <c r="Q9" s="56"/>
-      <c r="R9" s="140"/>
+      <c r="R9" s="87"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -26229,26 +28332,26 @@
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="57"/>
-      <c r="R10" s="142"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="151">
+      <c r="A11" s="98">
         <v>0</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="150" t="str">
+      <c r="C11" s="97" t="str">
         <f>IF($E$2 &lt;&gt; "",$E$2,IF($D$2 &lt;&gt; "",$D$2,$C$2)) &amp; " - Vigilancia centinela de IRAG " &amp;
 " 
 Número de casos IRAG por semana epidemiológica. Año" &amp; IF($J$2 &lt;&gt; $K$2,"s " &amp;$J$2 &amp; " - " &amp; $K$2," " &amp; $K$2)</f>
         <v>Establec. 01 - Vigilancia centinela de IRAG  
 Número de casos IRAG por semana epidemiológica. Años 2019 - 2020</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="149"/>
+      <c r="D11" s="97"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="96"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="80">
@@ -26505,6 +28608,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -26513,7 +28622,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CAD057272B239F45BF04C2CC49F4149A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e50b14b4710f2ddafed42f1699c02a6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c29955c-3983-4360-85fb-74cf7af43e96" xmlns:ns3="862aa5ca-c86a-4192-b148-097035e828f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ee84c119ebf9b19fca9926a116f2fb3" ns2:_="" ns3:_="">
     <xsd:import namespace="4c29955c-3983-4360-85fb-74cf7af43e96"/>
@@ -26730,13 +28839,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFCA96F-3756-4031-BEA9-31623AB53D7A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4c29955c-3983-4360-85fb-74cf7af43e96"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="862aa5ca-c86a-4192-b148-097035e828f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C64B07E-69AB-4155-ACD8-18D82BFCE141}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -26744,7 +28864,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993CC287-39E8-4821-9EB5-6BD151B975A7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26761,21 +28881,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFFCA96F-3756-4031-BEA9-31623AB53D7A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4c29955c-3983-4360-85fb-74cf7af43e96"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="862aa5ca-c86a-4192-b148-097035e828f6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>